--- a/Artéfacts/Artéfacts Sprint 3/Calendrier Sprint 3.xlsx
+++ b/Artéfacts/Artéfacts Sprint 3/Calendrier Sprint 3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donoc\Desktop\Artéfacts\Artéfacts Sprint 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donoc\Desktop\L3 Informatique\Semestre 2\Projet de développement\Artéfacts\Artéfacts Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28738632-0EDD-4DD2-92C9-5568B0DDBD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07476F36-B2A0-4625-879F-340AF3A1A157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DAF1FEF-636C-495F-A4D9-98A6306D3E56}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>LUNDI</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Tâches / Date</t>
   </si>
   <si>
-    <t>Tâche terminé le…</t>
-  </si>
-  <si>
     <t>Extraction de ou des adresses courriels du/des auteurs</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Augmentation du nombre de fichiers dans le deuxième corpus</t>
   </si>
   <si>
-    <t>Création de Tests unitaires</t>
-  </si>
-  <si>
     <t>Modification des tests unitaires pour avoir un "score" de précision</t>
   </si>
   <si>
@@ -136,6 +130,21 @@
   </si>
   <si>
     <t>Améliorer l'extraction de l’abstract et des auteurs</t>
+  </si>
+  <si>
+    <t>Création de tests unitaires</t>
+  </si>
+  <si>
+    <t>Tâches terminé le 24/02/2024</t>
+  </si>
+  <si>
+    <t>Tâches terminé le 25/02/2024</t>
+  </si>
+  <si>
+    <t>Tâches terminé le 28/02/2024</t>
+  </si>
+  <si>
+    <t>Tâches terminé le 29/02/2024</t>
   </si>
 </sst>
 </file>
@@ -166,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +212,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -216,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -227,11 +248,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25C790B-9A69-420E-ADEC-218324962F86}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,31 +616,31 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <f ca="1">TODAY()-1</f>
-        <v>45341</v>
+        <v>45345</v>
       </c>
       <c r="C2" s="1">
         <f ca="1">TODAY()</f>
-        <v>45342</v>
+        <v>45346</v>
       </c>
       <c r="D2" s="1">
         <f ca="1">TODAY()+1</f>
-        <v>45343</v>
+        <v>45347</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">TODAY()+2</f>
-        <v>45344</v>
+        <v>45348</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">TODAY()+3</f>
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="G2" s="1">
         <f ca="1">TODAY()+4</f>
-        <v>45346</v>
+        <v>45350</v>
       </c>
       <c r="H2" s="1">
         <f ca="1">TODAY()+5</f>
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -661,11 +683,11 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="C5" s="13">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -673,11 +695,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+      <c r="G5" s="10">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -690,65 +712,74 @@
       </c>
       <c r="C7">
         <f t="shared" ref="C7:H7" si="0">B7+C4-C5</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>7</v>
+      <c r="A20" s="9"/>
+      <c r="B20" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="10"/>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="12"/>
       <c r="B22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +794,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,120 +805,120 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="B4" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="B10" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
+        <v>31</v>
+      </c>
+      <c r="B11" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="B14" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="B15" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="B18" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
+        <v>22</v>
+      </c>
+      <c r="B19" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
+        <v>23</v>
+      </c>
+      <c r="B20" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>30</v>
+      <c r="A22" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B22">
         <f>B4+B5+B6+B9++B10+B11+B14+B15+B18+B19+B20</f>

--- a/Artéfacts/Artéfacts Sprint 3/Calendrier Sprint 3.xlsx
+++ b/Artéfacts/Artéfacts Sprint 3/Calendrier Sprint 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donoc\Desktop\L3 Informatique\Semestre 2\Projet de développement\Artéfacts\Artéfacts Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07476F36-B2A0-4625-879F-340AF3A1A157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C989C17-A355-4FAA-BB74-72CDFF7A6F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DAF1FEF-636C-495F-A4D9-98A6306D3E56}"/>
   </bookViews>
@@ -141,10 +141,10 @@
     <t>Tâches terminé le 25/02/2024</t>
   </si>
   <si>
-    <t>Tâches terminé le 28/02/2024</t>
-  </si>
-  <si>
-    <t>Tâches terminé le 29/02/2024</t>
+    <t>Tâches terminé le 20/02/2024</t>
+  </si>
+  <si>
+    <t>Tâches terminé le 21/02/2024</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,32 +615,32 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
-        <f ca="1">TODAY()-1</f>
+        <f>DATE(2024,2,19)</f>
+        <v>45341</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2+1</f>
+        <v>45342</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:H2" si="0">C2+1</f>
+        <v>45343</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" si="0"/>
+        <v>45344</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" si="0"/>
         <v>45345</v>
       </c>
-      <c r="C2" s="1">
-        <f ca="1">TODAY()</f>
+      <c r="G2" s="1">
+        <f t="shared" si="0"/>
         <v>45346</v>
       </c>
-      <c r="D2" s="1">
-        <f ca="1">TODAY()+1</f>
+      <c r="H2" s="1">
+        <f t="shared" si="0"/>
         <v>45347</v>
-      </c>
-      <c r="E2" s="1">
-        <f ca="1">TODAY()+2</f>
-        <v>45348</v>
-      </c>
-      <c r="F2" s="1">
-        <f ca="1">TODAY()+3</f>
-        <v>45349</v>
-      </c>
-      <c r="G2" s="1">
-        <f ca="1">TODAY()+4</f>
-        <v>45350</v>
-      </c>
-      <c r="H2" s="1">
-        <f ca="1">TODAY()+5</f>
-        <v>45351</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -711,27 +711,27 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:H7" si="0">B7+C4-C5</f>
+        <f t="shared" ref="C7:H7" si="1">B7+C4-C5</f>
         <v>8</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -761,25 +761,25 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Artéfacts/Artéfacts Sprint 3/Calendrier Sprint 3.xlsx
+++ b/Artéfacts/Artéfacts Sprint 3/Calendrier Sprint 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donoc\Desktop\L3 Informatique\Semestre 2\Projet de développement\Artéfacts\Artéfacts Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C989C17-A355-4FAA-BB74-72CDFF7A6F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38328CD-1E7E-480E-8EFC-D5A064CEBD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DAF1FEF-636C-495F-A4D9-98A6306D3E56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9DAF1FEF-636C-495F-A4D9-98A6306D3E56}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>Rendre le programme sur le Moodle</t>
   </si>
   <si>
-    <t>Faire le tableau Excel et le détails des tâches du Sprint</t>
-  </si>
-  <si>
     <t>Faire un rapport de fin de Sprint</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Tâches terminé le 21/02/2024</t>
+  </si>
+  <si>
+    <t>Faire le tableau Excel et le détail des tâches du Sprint</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25C790B-9A69-420E-ADEC-218324962F86}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -761,25 +761,25 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA30D50F-0BD7-4D6D-98EF-6C8A8DFFE157}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,12 +805,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -839,7 +839,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -860,7 +860,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
@@ -868,12 +868,12 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="13">
         <v>1</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -902,7 +902,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B19" s="13">
         <v>1</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="12">
         <v>1</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <f>B4+B5+B6+B9++B10+B11+B14+B15+B18+B19+B20</f>
